--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_13-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_13-34.xlsx
@@ -83,6 +83,9 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
     <t>HAIRVOGINE 30TAB</t>
   </si>
   <si>
@@ -150,6 +153,9 @@
   </si>
   <si>
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -983,17 +989,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1001,7 +1007,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1009,13 +1015,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1027,7 +1033,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1035,13 +1041,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1061,17 +1067,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1079,7 +1085,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1087,17 +1093,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1113,17 +1119,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1139,17 +1145,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1165,17 +1171,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1183,7 +1189,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1191,7 +1197,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1201,7 +1207,7 @@
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1217,17 +1223,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1243,13 +1249,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1261,7 +1267,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1269,13 +1275,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1295,17 +1301,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1321,17 +1327,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1339,7 +1345,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1347,17 +1353,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1379,7 +1385,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>531</v>
+        <v>23</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1399,17 +1405,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>-96</v>
+        <v>531</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1425,17 +1431,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>34</v>
+        <v>-96</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1443,7 +1449,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1451,13 +1457,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1469,7 +1475,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1477,17 +1483,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1495,7 +1501,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1503,17 +1509,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>-4</v>
+        <v>96</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1521,7 +1527,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1529,13 +1535,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1555,17 +1561,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>80</v>
+        <v>-4</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1573,7 +1579,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1581,51 +1587,103 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="K36" s="10">
-        <v>1755</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="11">
+    <row r="36" ht="24.75" customHeight="1">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c t="s" r="B36" s="7">
+        <v>57</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c t="s" r="H36" s="8">
         <v>58</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c t="s" r="F37" s="12">
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9">
+        <v>80</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c t="s" r="N36" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c t="s" r="B37" s="7">
         <v>59</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c t="s" r="I37" s="14">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c t="s" r="H37" s="8">
+        <v>9</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9">
+        <v>20</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c t="s" r="N37" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5" customHeight="1">
+      <c r="K38" s="10">
+        <v>1849</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" ht="17.25" customHeight="1">
+      <c t="s" r="A39" s="11">
         <v>60</v>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c t="s" r="F39" s="12">
+        <v>61</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
+      <c t="s" r="I39" s="14">
+        <v>62</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="113">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1729,10 +1787,16 @@
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:N39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
